--- a/BACKEND/aantik/preinscritos.xlsx
+++ b/BACKEND/aantik/preinscritos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUCHYS\Documents\GitHub\AANTIK\BACKEND\aantik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuerv\Documents\GitHub\AANTIK-Correciones\BACKEND\aantik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F1081D-0725-4FE7-8EBA-4B319178A57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828459B8-9715-4CA3-86D2-C3E4E9ACCFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="550">
   <si>
     <t>ID</t>
   </si>
@@ -173,9 +173,6 @@
     <t>1010078557</t>
   </si>
   <si>
-    <t xml:space="preserve">20 De Enero </t>
-  </si>
-  <si>
     <t>3013536937</t>
   </si>
   <si>
@@ -587,18 +584,6 @@
     <t>3015872179</t>
   </si>
   <si>
-    <t xml:space="preserve">Sofia Rodriguez </t>
-  </si>
-  <si>
-    <t>00020435955</t>
-  </si>
-  <si>
-    <t>1000794974</t>
-  </si>
-  <si>
-    <t>3187074712</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sofia Vargas </t>
   </si>
   <si>
@@ -680,9 +665,6 @@
     <t>1001169269</t>
   </si>
   <si>
-    <t>21 de enero del 2022</t>
-  </si>
-  <si>
     <t>3235779943</t>
   </si>
   <si>
@@ -725,9 +707,6 @@
     <t>1022445414</t>
   </si>
   <si>
-    <t>Diciembre 2021</t>
-  </si>
-  <si>
     <t>3102427116</t>
   </si>
   <si>
@@ -791,9 +770,6 @@
     <t>1023981419</t>
   </si>
   <si>
-    <t>Jueves 20 de enero del 2022</t>
-  </si>
-  <si>
     <t>3013399388</t>
   </si>
   <si>
@@ -905,9 +881,6 @@
     <t>1018508315</t>
   </si>
   <si>
-    <t>2021-03</t>
-  </si>
-  <si>
     <t>3125563667</t>
   </si>
   <si>
@@ -992,9 +965,6 @@
     <t>1083024764</t>
   </si>
   <si>
-    <t>Viernes 3 de diciembre de 2021</t>
-  </si>
-  <si>
     <t>3176398325</t>
   </si>
   <si>
@@ -1118,9 +1088,6 @@
     <t>1054096265</t>
   </si>
   <si>
-    <t>01/12/21</t>
-  </si>
-  <si>
     <t>3204067094</t>
   </si>
   <si>
@@ -1181,9 +1148,6 @@
     <t>1007442110</t>
   </si>
   <si>
-    <t>Dic de 2021</t>
-  </si>
-  <si>
     <t>3114549528</t>
   </si>
   <si>
@@ -1208,9 +1172,6 @@
     <t>1015481006</t>
   </si>
   <si>
-    <t>1, 2 o 3 de diciembre 2021</t>
-  </si>
-  <si>
     <t>3203469086</t>
   </si>
   <si>
@@ -1238,9 +1199,6 @@
     <t>3102112805</t>
   </si>
   <si>
-    <t>Juan David Pulido García</t>
-  </si>
-  <si>
     <t xml:space="preserve">Juan Felipe londoño martinez </t>
   </si>
   <si>
@@ -1355,9 +1313,6 @@
     <t>1002393450</t>
   </si>
   <si>
-    <t>21/01/2022</t>
-  </si>
-  <si>
     <t>3215097163</t>
   </si>
   <si>
@@ -1367,9 +1322,6 @@
     <t>Nicolás Pedraza Forero</t>
   </si>
   <si>
-    <t>20399618</t>
-  </si>
-  <si>
     <t>1001091662</t>
   </si>
   <si>
@@ -1415,9 +1367,6 @@
     <t>1020838528</t>
   </si>
   <si>
-    <t>4 de diciembre 2021</t>
-  </si>
-  <si>
     <t>3005588202</t>
   </si>
   <si>
@@ -1478,9 +1427,6 @@
     <t>1032494713</t>
   </si>
   <si>
-    <t>16 de Julio 2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">3175126672 </t>
   </si>
   <si>
@@ -1559,9 +1505,6 @@
     <t>3144670901</t>
   </si>
   <si>
-    <t>2022-10</t>
-  </si>
-  <si>
     <t>Nicolás Acosta Vargas</t>
   </si>
   <si>
@@ -1673,9 +1616,6 @@
     <t>1000706285</t>
   </si>
   <si>
-    <t>1 de junio</t>
-  </si>
-  <si>
     <t>3108094252</t>
   </si>
   <si>
@@ -1712,9 +1652,6 @@
     <t>1101696378</t>
   </si>
   <si>
-    <t>2 de junio</t>
-  </si>
-  <si>
     <t>3115460601</t>
   </si>
   <si>
@@ -1730,9 +1667,6 @@
     <t>3164983183</t>
   </si>
   <si>
-    <t>3 de junio de 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">Laura Ramírez </t>
   </si>
   <si>
@@ -1746,6 +1680,12 @@
   </si>
   <si>
     <t>¿Ya revisaste la infografía enviada por medio de correo de carrera y/o de correo de coordinaciónpgpt dónde se exponen los pasos a seguir para el registro de CDIO 3 ó PSU? En caso negativo te invit…</t>
+  </si>
+  <si>
+    <t>20/1/2021</t>
+  </si>
+  <si>
+    <t>4/4/2022</t>
   </si>
 </sst>
 </file>
@@ -1768,12 +1708,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1788,18 +1734,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1842,20 +1791,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J158" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J155" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="9"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Nombre completo " dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{DE124EEB-5A38-4D4B-8F5F-B30C38CF7814}" name="Correo institucional" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{DE124EEB-5A38-4D4B-8F5F-B30C38CF7814}" name="Correo institucional" dataDxfId="7">
       <calculatedColumnFormula>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ID de la Javeriana incluyendo los ceros y sin puntos" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Cédula de ciudadanía (sin puntos ó comas)" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Materia a matricular en 2022-30" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="¿Asististe en semestres anteriores al Taller Sentido Mi Práctica?" dataDxfId="4"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Si la respuesta en la pregunta 5 es SI, por favor diligencia la fecha de asistencia. En caso negativo dejar en blanco" dataDxfId="3"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Por favor escribe tu número celular o en su defecto un teléfono de contacto" dataDxfId="2"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="¿Ya revisaste la infografía enviada por medio de correo de carrera y/o de correo de coordinaciónpgpt dónde se exponen los pasos a seguir para el registro de CDIO 3 ó PSU? En caso negativo te invit…" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ID de la Javeriana incluyendo los ceros y sin puntos" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Cédula de ciudadanía (sin puntos ó comas)" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Materia a matricular en 2022-30" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="¿Asististe en semestres anteriores al Taller Sentido Mi Práctica?" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Si la respuesta en la pregunta 5 es SI, por favor diligencia la fecha de asistencia. En caso negativo dejar en blanco" dataDxfId="0"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Por favor escribe tu número celular o en su defecto un teléfono de contacto" dataDxfId="1"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="¿Ya revisaste la infografía enviada por medio de correo de carrera y/o de correo de coordinaciónpgpt dónde se exponen los pasos a seguir para el registro de CDIO 3 ó PSU? En caso negativo te invit…" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2158,20 +2107,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J158"/>
+  <dimension ref="A1:J155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="F145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H158" sqref="H158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="33.33203125" customWidth="1"/>
-    <col min="4" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" customWidth="1"/>
+    <col min="7" max="7" width="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="97.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="170.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2182,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>568</v>
+        <v>546</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2196,14 +2148,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2229,6 +2181,7 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="6"/>
       <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
@@ -2319,6 +2272,9 @@
       <c r="G5" t="s">
         <v>12</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>549</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2409,7 +2365,7 @@
       <c r="G8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2442,11 +2398,11 @@
       <c r="G9" t="s">
         <v>39</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -2457,17 +2413,17 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Gabri@prueba.com</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Gabri@prueba.com</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
@@ -2476,7 +2432,7 @@
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -2487,17 +2443,17 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Lina @prueba.com</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Lina @prueba.com</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -2506,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -2517,26 +2473,26 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>nicol@prueba.com</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>nicol@prueba.com</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -2547,26 +2503,26 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Esteb@prueba.com</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C13" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Esteb@prueba.com</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="J13" t="s">
         <v>14</v>
@@ -2577,17 +2533,17 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juan @prueba.com</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F14" t="s">
         <v>26</v>
@@ -2596,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -2607,17 +2563,17 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Andre@prueba.com</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C15" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Andre@prueba.com</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F15" t="s">
         <v>26</v>
@@ -2626,7 +2582,7 @@
         <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -2637,26 +2593,26 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maira@prueba.com</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C16" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maira@prueba.com</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -2667,26 +2623,26 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>ANGEL@prueba.com</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C17" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>ANGEL@prueba.com</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J17" t="s">
         <v>14</v>
@@ -2697,17 +2653,17 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Ximen@prueba.com</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C18" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Ximen@prueba.com</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
@@ -2716,7 +2672,7 @@
         <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
         <v>14</v>
@@ -2727,17 +2683,17 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
@@ -2746,7 +2702,7 @@
         <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
         <v>14</v>
@@ -2757,17 +2713,17 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C20" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
@@ -2776,7 +2732,7 @@
         <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
         <v>14</v>
@@ -2787,17 +2743,17 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Duvan@prueba.com</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C21" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Duvan@prueba.com</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
@@ -2806,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J21" t="s">
         <v>14</v>
@@ -2817,26 +2773,26 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Natal@prueba.com</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C22" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Natal@prueba.com</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="J22" t="s">
         <v>14</v>
@@ -2847,26 +2803,26 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Sergi@prueba.com</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C23" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Sergi@prueba.com</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="J23" t="s">
         <v>14</v>
@@ -2877,26 +2833,26 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C24" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Nicol@prueba.com</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="J24" t="s">
         <v>14</v>
@@ -2907,26 +2863,26 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C25" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="J25" t="s">
         <v>14</v>
@@ -2937,26 +2893,26 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Tábat@prueba.com</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C26" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Tábat@prueba.com</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="J26" t="s">
         <v>14</v>
@@ -2967,26 +2923,26 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Jorge@prueba.com</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C27" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Jorge@prueba.com</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="J27" t="s">
         <v>14</v>
@@ -2997,26 +2953,26 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Julia@prueba.com</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C28" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Julia@prueba.com</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="J28" t="s">
         <v>14</v>
@@ -3027,26 +2983,26 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>ANGEL@prueba.com</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C29" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>ANGEL@prueba.com</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="J29" t="s">
         <v>14</v>
@@ -3057,26 +3013,26 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Aleja@prueba.com</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C30" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Aleja@prueba.com</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="J30" t="s">
         <v>14</v>
@@ -3087,26 +3043,26 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Juani@prueba.com</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C31" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juani@prueba.com</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="J31" t="s">
         <v>14</v>
@@ -3117,26 +3073,26 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Catal@prueba.com</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C32" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Catal@prueba.com</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="J32" t="s">
         <v>14</v>
@@ -3147,26 +3103,26 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C33" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Danie@prueba.com</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="J33" t="s">
         <v>14</v>
@@ -3177,17 +3133,17 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>André@prueba.com</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C34" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>André@prueba.com</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F34" t="s">
         <v>26</v>
@@ -3196,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J34" t="s">
         <v>14</v>
@@ -3207,26 +3163,26 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Julia@prueba.com</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C35" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Julia@prueba.com</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="J35" t="s">
         <v>14</v>
@@ -3237,17 +3193,17 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C36" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Danie@prueba.com</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="F36" t="s">
         <v>26</v>
@@ -3256,7 +3212,7 @@
         <v>12</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" t="s">
         <v>14</v>
@@ -3267,17 +3223,17 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C37" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Laura@prueba.com</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="F37" t="s">
         <v>26</v>
@@ -3286,7 +3242,7 @@
         <v>12</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J37" t="s">
         <v>14</v>
@@ -3297,17 +3253,17 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C38" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Danie@prueba.com</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="F38" t="s">
         <v>26</v>
@@ -3316,7 +3272,7 @@
         <v>12</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J38" t="s">
         <v>14</v>
@@ -3327,26 +3283,26 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>158</v>
+      </c>
+      <c r="C39" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Willi@prueba.com</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C39" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Willi@prueba.com</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" t="s">
         <v>160</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="J39" t="s">
         <v>14</v>
@@ -3357,26 +3313,26 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>María@prueba.com</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C40" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>María@prueba.com</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="J40" t="s">
         <v>14</v>
@@ -3387,26 +3343,26 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Emili@prueba.com</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C41" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Emili@prueba.com</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="J41" t="s">
         <v>14</v>
@@ -3417,26 +3373,26 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Santi@prueba.com</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C42" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Santi@prueba.com</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="J42" t="s">
         <v>14</v>
@@ -3447,26 +3403,26 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C43" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Laura@prueba.com</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
         <v>177</v>
-      </c>
-      <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" t="s">
-        <v>178</v>
       </c>
       <c r="J43" t="s">
         <v>14</v>
@@ -3477,26 +3433,26 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Adria@prueba.com</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C44" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Adria@prueba.com</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="J44" t="s">
         <v>14</v>
@@ -3504,29 +3460,29 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Sofia@prueba.com</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C45" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Sofia@prueba.com</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="J45" t="s">
         <v>14</v>
@@ -3534,29 +3490,29 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Sandr@prueba.com</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C46" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Sofia@prueba.com</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="J46" t="s">
         <v>14</v>
@@ -3564,20 +3520,20 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Danie@prueba.com</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C47" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Sandr@prueba.com</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="F47" t="s">
         <v>26</v>
@@ -3586,7 +3542,7 @@
         <v>12</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J47" t="s">
         <v>14</v>
@@ -3594,29 +3550,29 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Carol@prueba.com</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C48" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Danie@prueba.com</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="J48" t="s">
         <v>14</v>
@@ -3624,29 +3580,29 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Samue@prueba.com</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C49" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Carol@prueba.com</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="J49" t="s">
         <v>14</v>
@@ -3654,29 +3610,29 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C50" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Natal@prueba.com</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C50" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Samue@prueba.com</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="F50" t="s">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="J50" t="s">
         <v>14</v>
@@ -3684,29 +3640,29 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C51" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Natal@prueba.com</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="J51" t="s">
         <v>14</v>
@@ -3714,32 +3670,29 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>André@prueba.com</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C52" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H52" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="J52" t="s">
         <v>14</v>
@@ -3747,20 +3700,20 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C53" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>André@prueba.com</v>
+        <v>Mateo@prueba.com</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F53" t="s">
         <v>26</v>
@@ -3769,7 +3722,7 @@
         <v>12</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="J53" t="s">
         <v>14</v>
@@ -3777,20 +3730,20 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
+        <v>216</v>
+      </c>
+      <c r="C54" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Lucia@prueba.com</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C54" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Mateo@prueba.com</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="F54" t="s">
         <v>26</v>
@@ -3799,7 +3752,7 @@
         <v>12</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J54" t="s">
         <v>14</v>
@@ -3807,20 +3760,20 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C55" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Lucia@prueba.com</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="F55" t="s">
         <v>26</v>
@@ -3829,7 +3782,7 @@
         <v>12</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J55" t="s">
         <v>14</v>
@@ -3837,20 +3790,20 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Natal@prueba.com</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="C56" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Laura@prueba.com</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="F56" t="s">
         <v>26</v>
@@ -3858,11 +3811,11 @@
       <c r="G56" t="s">
         <v>39</v>
       </c>
-      <c r="H56" t="s">
-        <v>229</v>
+      <c r="H56" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J56" t="s">
         <v>14</v>
@@ -3870,32 +3823,29 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Maria@prueba.com</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C57" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Natal@prueba.com</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="F57" t="s">
         <v>26</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="J57" t="s">
         <v>14</v>
@@ -3903,29 +3853,29 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Nicol@prueba.com</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="C58" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F58" t="s">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="J58" t="s">
         <v>14</v>
@@ -3933,29 +3883,29 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Vivia@prueba.com</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C59" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Nicol@prueba.com</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="J59" t="s">
         <v>14</v>
@@ -3963,29 +3913,32 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Laura@prueba.com</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I60" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C60" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Vivia@prueba.com</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="J60" t="s">
         <v>14</v>
@@ -3993,32 +3946,29 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" t="str">
+        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
+        <v>Santi@prueba.com</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C61" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Laura@prueba.com</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s">
-        <v>39</v>
-      </c>
-      <c r="H61" t="s">
-        <v>251</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="J61" t="s">
         <v>14</v>
@@ -4026,20 +3976,20 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C62" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Santi@prueba.com</v>
+        <v>Juan @prueba.com</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F62" t="s">
         <v>11</v>
@@ -4048,7 +3998,7 @@
         <v>12</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J62" t="s">
         <v>14</v>
@@ -4056,29 +4006,29 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C63" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Crist@prueba.com</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J63" t="s">
         <v>14</v>
@@ -4086,20 +4036,20 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C64" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
         <v>Crist@prueba.com</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F64" t="s">
         <v>26</v>
@@ -4108,7 +4058,7 @@
         <v>12</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="J64" t="s">
         <v>14</v>
@@ -4116,20 +4066,20 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C65" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Crist@prueba.com</v>
+        <v>Wendy@prueba.com</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F65" t="s">
         <v>26</v>
@@ -4138,7 +4088,7 @@
         <v>12</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J65" t="s">
         <v>14</v>
@@ -4146,29 +4096,29 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C66" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Wendy@prueba.com</v>
+        <v>Janny@prueba.com</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J66" t="s">
         <v>14</v>
@@ -4176,29 +4126,29 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C67" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Janny@prueba.com</v>
+        <v>Juan @prueba.com</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="J67" t="s">
         <v>14</v>
@@ -4206,29 +4156,29 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C68" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Julia@prueba.com</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J68" t="s">
         <v>14</v>
@@ -4236,20 +4186,20 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C69" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Julia@prueba.com</v>
+        <v>CARLO@prueba.com</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
@@ -4258,7 +4208,7 @@
         <v>12</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="J69" t="s">
         <v>14</v>
@@ -4266,29 +4216,32 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C70" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>CARLO@prueba.com</v>
+        <v>Sabri@prueba.com</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J70" t="s">
         <v>14</v>
@@ -4296,32 +4249,32 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C71" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Sabri@prueba.com</v>
+        <v>Jorge@prueba.com</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F71" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
         <v>39</v>
       </c>
-      <c r="H71" t="s">
-        <v>289</v>
+      <c r="H71" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J71" t="s">
         <v>14</v>
@@ -4329,32 +4282,29 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C72" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Jorge@prueba.com</v>
+        <v>Sofia@prueba.com</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
-      </c>
-      <c r="H72" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J72" t="s">
         <v>14</v>
@@ -4362,20 +4312,20 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C73" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Sofia@prueba.com</v>
+        <v>Ana M@prueba.com</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F73" t="s">
         <v>11</v>
@@ -4384,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J73" t="s">
         <v>14</v>
@@ -4392,20 +4342,20 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C74" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Ana M@prueba.com</v>
+        <v>Chels@prueba.com</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F74" t="s">
         <v>11</v>
@@ -4414,7 +4364,7 @@
         <v>12</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J74" t="s">
         <v>14</v>
@@ -4422,29 +4372,29 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C75" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Chels@prueba.com</v>
+        <v>MARIA@prueba.com</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G75" t="s">
         <v>12</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J75" t="s">
         <v>14</v>
@@ -4452,20 +4402,20 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C76" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>MARIA@prueba.com</v>
+        <v>Juan @prueba.com</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F76" t="s">
         <v>26</v>
@@ -4474,7 +4424,7 @@
         <v>12</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="J76" t="s">
         <v>14</v>
@@ -4482,83 +4432,83 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C77" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Alfre@prueba.com</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G77" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="J77" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C78" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Alfre@prueba.com</v>
+        <v>Vivia@prueba.com</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F78" t="s">
         <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
-      </c>
-      <c r="H78" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J78" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C79" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Vivia@prueba.com</v>
+        <v>Erika@prueba.com</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
@@ -4567,7 +4517,7 @@
         <v>12</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J79" t="s">
         <v>14</v>
@@ -4575,20 +4525,20 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C80" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Erika@prueba.com</v>
+        <v>Julia@prueba.com</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
@@ -4597,7 +4547,7 @@
         <v>12</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J80" t="s">
         <v>14</v>
@@ -4605,20 +4555,20 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C81" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Julia@prueba.com</v>
+        <v>Maria@prueba.com</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F81" t="s">
         <v>11</v>
@@ -4627,7 +4577,7 @@
         <v>12</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J81" t="s">
         <v>14</v>
@@ -4635,20 +4585,20 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C82" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
+        <v>Juan @prueba.com</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F82" t="s">
         <v>11</v>
@@ -4657,7 +4607,7 @@
         <v>12</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J82" t="s">
         <v>14</v>
@@ -4665,20 +4615,20 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C83" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Ana M@prueba.com</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F83" t="s">
         <v>11</v>
@@ -4687,7 +4637,7 @@
         <v>12</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J83" t="s">
         <v>14</v>
@@ -4695,20 +4645,20 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C84" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Ana M@prueba.com</v>
+        <v>David@prueba.com</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F84" t="s">
         <v>11</v>
@@ -4717,7 +4667,7 @@
         <v>12</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="J84" t="s">
         <v>14</v>
@@ -4725,20 +4675,20 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C85" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>David@prueba.com</v>
+        <v>Gabri@prueba.com</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F85" t="s">
         <v>11</v>
@@ -4747,7 +4697,7 @@
         <v>12</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J85" t="s">
         <v>14</v>
@@ -4755,20 +4705,20 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C86" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Gabri@prueba.com</v>
+        <v>Natal@prueba.com</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F86" t="s">
         <v>11</v>
@@ -4777,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="J86" t="s">
         <v>14</v>
@@ -4785,29 +4735,32 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C87" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Natal@prueba.com</v>
+        <v>Miche@prueba.com</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G87" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="J87" t="s">
         <v>14</v>
@@ -4815,32 +4768,29 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C88" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Miche@prueba.com</v>
+        <v>Paula@prueba.com</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
-      </c>
-      <c r="H88" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J88" t="s">
         <v>14</v>
@@ -4848,29 +4798,29 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C89" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Paula@prueba.com</v>
+        <v>Santi@prueba.com</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G89" t="s">
         <v>12</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J89" t="s">
         <v>14</v>
@@ -4878,20 +4828,20 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C90" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Santi@prueba.com</v>
+        <v>Giova@prueba.com</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F90" t="s">
         <v>26</v>
@@ -4900,7 +4850,7 @@
         <v>12</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="J90" t="s">
         <v>14</v>
@@ -4908,20 +4858,20 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C91" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Giova@prueba.com</v>
+        <v>Melis@prueba.com</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F91" t="s">
         <v>26</v>
@@ -4930,7 +4880,7 @@
         <v>12</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="J91" t="s">
         <v>14</v>
@@ -4938,29 +4888,32 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C92" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Melis@prueba.com</v>
+        <v>Juan @prueba.com</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J92" t="s">
         <v>14</v>
@@ -4968,32 +4921,29 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C93" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Nicol@prueba.com</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F93" t="s">
         <v>11</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
-      </c>
-      <c r="H93" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="J93" t="s">
         <v>14</v>
@@ -5001,29 +4951,32 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C94" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Nicol@prueba.com</v>
+        <v>Manue@prueba.com</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G94" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="J94" t="s">
         <v>14</v>
@@ -5031,32 +4984,29 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C95" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Manue@prueba.com</v>
+        <v>Juliá@prueba.com</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>39</v>
-      </c>
-      <c r="H95" t="s">
-        <v>390</v>
+        <v>12</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J95" t="s">
         <v>14</v>
@@ -5064,29 +5014,29 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C96" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juliá@prueba.com</v>
+        <v>Aleja@prueba.com</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G96" t="s">
         <v>12</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="J96" t="s">
         <v>14</v>
@@ -5094,29 +5044,29 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="C97" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Aleja@prueba.com</v>
+        <v>Juan @prueba.com</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F97" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G97" t="s">
         <v>12</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J97" t="s">
         <v>14</v>
@@ -5124,29 +5074,29 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C98" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Maria@prueba.com</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>64</v>
+        <v>392</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>65</v>
+        <v>393</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
         <v>12</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>66</v>
+        <v>394</v>
       </c>
       <c r="J98" t="s">
         <v>14</v>
@@ -5154,29 +5104,29 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="C99" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Aleja@prueba.com</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G99" t="s">
         <v>12</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="J99" t="s">
         <v>14</v>
@@ -5184,20 +5134,20 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C100" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
+        <v>André@prueba.com</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F100" t="s">
         <v>11</v>
@@ -5206,7 +5156,7 @@
         <v>12</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="J100" t="s">
         <v>14</v>
@@ -5214,29 +5164,29 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C101" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Aleja@prueba.com</v>
+        <v>Catal@prueba.com</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G101" t="s">
         <v>12</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J101" t="s">
         <v>14</v>
@@ -5244,29 +5194,29 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C102" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>André@prueba.com</v>
+        <v>Angel@prueba.com</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G102" t="s">
         <v>12</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J102" t="s">
         <v>14</v>
@@ -5274,29 +5224,29 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>413</v>
+        <v>78</v>
       </c>
       <c r="C103" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Catal@prueba.com</v>
+        <v>Ximen@prueba.com</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>414</v>
+        <v>79</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G103" t="s">
         <v>12</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>416</v>
+        <v>81</v>
       </c>
       <c r="J103" t="s">
         <v>14</v>
@@ -5304,29 +5254,29 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C104" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Angel@prueba.com</v>
+        <v>César@prueba.com</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F104" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G104" t="s">
         <v>12</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="J104" t="s">
         <v>14</v>
@@ -5334,20 +5284,20 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="C105" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Ximen@prueba.com</v>
+        <v>juan @prueba.com</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>80</v>
+        <v>412</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>81</v>
+        <v>268</v>
       </c>
       <c r="F105" t="s">
         <v>26</v>
@@ -5356,37 +5306,37 @@
         <v>12</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="J105" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C106" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>César@prueba.com</v>
+        <v>Maria@prueba.com</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G106" t="s">
         <v>12</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="J106" t="s">
         <v>14</v>
@@ -5394,59 +5344,62 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C107" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>juan @prueba.com</v>
+        <v>Nesto@prueba.com</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>276</v>
+        <v>420</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G107" t="s">
         <v>12</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="J107" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C108" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
+        <v>Saulo@prueba.com</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J108" t="s">
         <v>14</v>
@@ -5454,20 +5407,20 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>432</v>
+        <v>102</v>
       </c>
       <c r="C109" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Nesto@prueba.com</v>
+        <v>Nicol@prueba.com</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>434</v>
+        <v>104</v>
       </c>
       <c r="F109" t="s">
         <v>11</v>
@@ -5476,7 +5429,7 @@
         <v>12</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>435</v>
+        <v>105</v>
       </c>
       <c r="J109" t="s">
         <v>14</v>
@@ -5484,53 +5437,50 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C110" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Saulo@prueba.com</v>
+        <v>Nicol@prueba.com</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="F110" t="s">
         <v>11</v>
       </c>
       <c r="G110" t="s">
-        <v>39</v>
-      </c>
-      <c r="H110" t="s">
-        <v>439</v>
+        <v>12</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="J110" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
-        <v>103</v>
+        <v>431</v>
       </c>
       <c r="C111" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
         <v>Nicol@prueba.com</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>105</v>
+        <v>433</v>
       </c>
       <c r="F111" t="s">
         <v>11</v>
@@ -5539,7 +5489,7 @@
         <v>12</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>106</v>
+        <v>434</v>
       </c>
       <c r="J111" t="s">
         <v>14</v>
@@ -5547,50 +5497,50 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
       <c r="C112" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Nicol@prueba.com</v>
+        <v>Andre@prueba.com</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>443</v>
+        <v>67</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>444</v>
+        <v>68</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G112" t="s">
         <v>12</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="J112" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B113" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C113" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Nicol@prueba.com</v>
+        <v>Juan @prueba.com</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="F113" t="s">
         <v>11</v>
@@ -5599,37 +5549,40 @@
         <v>12</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="J113" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C114" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Nicol@prueba.com</v>
+        <v>Maria@prueba.com</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="J114" t="s">
         <v>14</v>
@@ -5637,20 +5590,20 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>444</v>
       </c>
       <c r="C115" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Andre@prueba.com</v>
+        <v>Danie@prueba.com</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>68</v>
+        <v>445</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>69</v>
+        <v>446</v>
       </c>
       <c r="F115" t="s">
         <v>26</v>
@@ -5659,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J115" t="s">
         <v>14</v>
@@ -5667,62 +5620,59 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B116" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C116" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Maria@prueba.com</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G116" t="s">
         <v>12</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J116" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C117" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
+        <v>Santi@prueba.com</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
-      </c>
-      <c r="H117" t="s">
-        <v>459</v>
+        <v>12</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="J117" t="s">
         <v>14</v>
@@ -5730,20 +5680,20 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C118" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
         <v>Danie@prueba.com</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F118" t="s">
         <v>26</v>
@@ -5752,7 +5702,7 @@
         <v>12</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J118" t="s">
         <v>14</v>
@@ -5760,29 +5710,32 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C119" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
+        <v>Valen@prueba.com</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F119" t="s">
         <v>26</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>468</v>
+        <v>39</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I119" t="s">
+        <v>463</v>
       </c>
       <c r="J119" t="s">
         <v>14</v>
@@ -5790,20 +5743,20 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C120" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Santi@prueba.com</v>
+        <v>Franc@prueba.com</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F120" t="s">
         <v>11</v>
@@ -5812,7 +5765,7 @@
         <v>12</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="J120" t="s">
         <v>14</v>
@@ -5820,29 +5773,29 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C121" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Danie@prueba.com</v>
+        <v>Martí@prueba.com</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G121" t="s">
         <v>12</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J121" t="s">
         <v>14</v>
@@ -5850,32 +5803,29 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C122" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Valen@prueba.com</v>
+        <v>Juan @prueba.com</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F122" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
-      </c>
-      <c r="H122" t="s">
-        <v>480</v>
-      </c>
-      <c r="I122" t="s">
-        <v>481</v>
+        <v>12</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>475</v>
       </c>
       <c r="J122" t="s">
         <v>14</v>
@@ -5883,29 +5833,29 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C123" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Franc@prueba.com</v>
+        <v>David@prueba.com</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G123" t="s">
         <v>12</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="J123" t="s">
         <v>14</v>
@@ -5913,29 +5863,29 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="C124" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Martí@prueba.com</v>
+        <v>Danie@prueba.com</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G124" t="s">
         <v>12</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="J124" t="s">
         <v>14</v>
@@ -5943,29 +5893,29 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C125" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Bryan@prueba.com</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="F125" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G125" t="s">
         <v>12</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="J125" t="s">
         <v>14</v>
@@ -5973,20 +5923,20 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="C126" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>David@prueba.com</v>
+        <v>Carlo@prueba.com</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="F126" t="s">
         <v>26</v>
@@ -5995,7 +5945,7 @@
         <v>12</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="J126" t="s">
         <v>14</v>
@@ -6003,29 +5953,32 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>473</v>
+        <v>206</v>
       </c>
       <c r="C127" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Danie@prueba.com</v>
+        <v>Maria@prueba.com</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>498</v>
+        <v>207</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>475</v>
+        <v>208</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G127" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>476</v>
+        <v>209</v>
       </c>
       <c r="J127" t="s">
         <v>14</v>
@@ -6033,29 +5986,29 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C128" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Bryan@prueba.com</v>
+        <v>Nicol@prueba.com</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>501</v>
+        <v>104</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G128" t="s">
         <v>12</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>502</v>
+        <v>105</v>
       </c>
       <c r="J128" t="s">
         <v>14</v>
@@ -6063,29 +6016,29 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C129" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Carlo@prueba.com</v>
+        <v>Willi@prueba.com</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>504</v>
+        <v>159</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G129" t="s">
         <v>12</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>506</v>
+        <v>161</v>
       </c>
       <c r="J129" t="s">
         <v>14</v>
@@ -6093,32 +6046,29 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
-        <v>211</v>
+        <v>492</v>
       </c>
       <c r="C130" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
         <v>Maria@prueba.com</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
-      </c>
-      <c r="H130" t="s">
-        <v>507</v>
+        <v>12</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>215</v>
+        <v>109</v>
       </c>
       <c r="J130" t="s">
         <v>14</v>
@@ -6126,20 +6076,20 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B131" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C131" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
         <v>Nicol@prueba.com</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>105</v>
+        <v>433</v>
       </c>
       <c r="F131" t="s">
         <v>11</v>
@@ -6148,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>106</v>
+        <v>434</v>
       </c>
       <c r="J131" t="s">
         <v>14</v>
@@ -6156,20 +6106,20 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C132" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Willi@prueba.com</v>
+        <v>Chels@prueba.com</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>160</v>
+        <v>295</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>510</v>
+        <v>296</v>
       </c>
       <c r="F132" t="s">
         <v>11</v>
@@ -6178,7 +6128,7 @@
         <v>12</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>162</v>
+        <v>297</v>
       </c>
       <c r="J132" t="s">
         <v>14</v>
@@ -6186,20 +6136,20 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B133" t="s">
-        <v>511</v>
+        <v>110</v>
       </c>
       <c r="C133" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Maria@prueba.com</v>
+        <v>Tábat@prueba.com</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F133" t="s">
         <v>11</v>
@@ -6208,7 +6158,7 @@
         <v>12</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J133" t="s">
         <v>14</v>
@@ -6216,20 +6166,20 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B134" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="C134" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Nicol@prueba.com</v>
+        <v>Laura@prueba.com</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>448</v>
+        <v>175</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>449</v>
+        <v>176</v>
       </c>
       <c r="F134" t="s">
         <v>11</v>
@@ -6237,8 +6187,8 @@
       <c r="G134" t="s">
         <v>12</v>
       </c>
-      <c r="I134" s="1" t="s">
-        <v>450</v>
+      <c r="I134" t="s">
+        <v>177</v>
       </c>
       <c r="J134" t="s">
         <v>14</v>
@@ -6246,20 +6196,20 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B135" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="C135" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Chels@prueba.com</v>
+        <v>Jorge@prueba.com</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>304</v>
+        <v>115</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>305</v>
+        <v>116</v>
       </c>
       <c r="F135" t="s">
         <v>11</v>
@@ -6268,7 +6218,7 @@
         <v>12</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>306</v>
+        <v>117</v>
       </c>
       <c r="J135" t="s">
         <v>14</v>
@@ -6276,20 +6226,20 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B136" t="s">
-        <v>111</v>
+        <v>343</v>
       </c>
       <c r="C136" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Tábat@prueba.com</v>
+        <v>Natal@prueba.com</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>112</v>
+        <v>344</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>113</v>
+        <v>345</v>
       </c>
       <c r="F136" t="s">
         <v>11</v>
@@ -6298,7 +6248,7 @@
         <v>12</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>114</v>
+        <v>346</v>
       </c>
       <c r="J136" t="s">
         <v>14</v>
@@ -6306,20 +6256,20 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B137" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="C137" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Laura@prueba.com</v>
+        <v>Juan @prueba.com</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>176</v>
+        <v>498</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>177</v>
+        <v>499</v>
       </c>
       <c r="F137" t="s">
         <v>11</v>
@@ -6327,8 +6277,8 @@
       <c r="G137" t="s">
         <v>12</v>
       </c>
-      <c r="I137" t="s">
-        <v>178</v>
+      <c r="I137" s="1" t="s">
+        <v>500</v>
       </c>
       <c r="J137" t="s">
         <v>14</v>
@@ -6336,20 +6286,20 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="C138" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Jorge@prueba.com</v>
+        <v>Aleja@prueba.com</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>116</v>
+        <v>502</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>117</v>
+        <v>503</v>
       </c>
       <c r="F138" t="s">
         <v>11</v>
@@ -6358,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>118</v>
+        <v>504</v>
       </c>
       <c r="J138" t="s">
         <v>14</v>
@@ -6366,20 +6316,20 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B139" t="s">
-        <v>353</v>
+        <v>505</v>
       </c>
       <c r="C139" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Natal@prueba.com</v>
+        <v>Juan @prueba.com</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>354</v>
+        <v>328</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="F139" t="s">
         <v>11</v>
@@ -6388,7 +6338,7 @@
         <v>12</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>356</v>
+        <v>330</v>
       </c>
       <c r="J139" t="s">
         <v>14</v>
@@ -6396,20 +6346,20 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="C140" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Nicol@prueba.com</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>517</v>
+        <v>234</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>518</v>
+        <v>235</v>
       </c>
       <c r="F140" t="s">
         <v>11</v>
@@ -6418,7 +6368,7 @@
         <v>12</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>519</v>
+        <v>236</v>
       </c>
       <c r="J140" t="s">
         <v>14</v>
@@ -6426,29 +6376,29 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B141" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="C141" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Aleja@prueba.com</v>
+        <v>Felip@prueba.com</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G141" t="s">
         <v>12</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="J141" t="s">
         <v>14</v>
@@ -6456,20 +6406,20 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B142" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C142" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Juan @prueba.com</v>
+        <v>Jorge@prueba.com</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>338</v>
+        <v>512</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>339</v>
+        <v>513</v>
       </c>
       <c r="F142" t="s">
         <v>11</v>
@@ -6478,7 +6428,7 @@
         <v>12</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>340</v>
+        <v>514</v>
       </c>
       <c r="J142" t="s">
         <v>14</v>
@@ -6486,20 +6436,20 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B143" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C143" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Nicol@prueba.com</v>
+        <v>Laura@prueba.com</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>241</v>
+        <v>516</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>242</v>
+        <v>517</v>
       </c>
       <c r="F143" t="s">
         <v>11</v>
@@ -6508,7 +6458,7 @@
         <v>12</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>243</v>
+        <v>518</v>
       </c>
       <c r="J143" t="s">
         <v>14</v>
@@ -6516,29 +6466,29 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B144" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="C144" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Felip@prueba.com</v>
+        <v>Andre@prueba.com</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G144" t="s">
         <v>12</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="J144" t="s">
         <v>14</v>
@@ -6546,20 +6496,20 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B145" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C145" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Jorge@prueba.com</v>
+        <v>Simón@prueba.com</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F145" t="s">
         <v>11</v>
@@ -6567,8 +6517,11 @@
       <c r="G145" t="s">
         <v>12</v>
       </c>
+      <c r="H145" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="I145" s="1" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="J145" t="s">
         <v>14</v>
@@ -6576,20 +6529,20 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C146" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Laura@prueba.com</v>
+        <v>Jonat@prueba.com</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F146" t="s">
         <v>11</v>
@@ -6598,28 +6551,28 @@
         <v>12</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="J146" t="s">
-        <v>14</v>
+        <v>310</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B147" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C147" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Andre@prueba.com</v>
+        <v>Mateo@prueba.com</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F147" t="s">
         <v>11</v>
@@ -6628,7 +6581,7 @@
         <v>12</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="J147" t="s">
         <v>14</v>
@@ -6636,20 +6589,20 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B148" t="s">
-        <v>542</v>
+        <v>427</v>
       </c>
       <c r="C148" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Simón@prueba.com</v>
+        <v>Nicol@prueba.com</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>543</v>
+        <v>430</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>544</v>
+        <v>428</v>
       </c>
       <c r="F148" t="s">
         <v>11</v>
@@ -6657,11 +6610,8 @@
       <c r="G148" t="s">
         <v>12</v>
       </c>
-      <c r="H148" t="s">
-        <v>545</v>
-      </c>
       <c r="I148" s="1" t="s">
-        <v>546</v>
+        <v>429</v>
       </c>
       <c r="J148" t="s">
         <v>14</v>
@@ -6669,50 +6619,53 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B149" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C149" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Jonat@prueba.com</v>
+        <v>Migue@prueba.com</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G149" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="J149" t="s">
-        <v>320</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>551</v>
+      <c r="A150" s="4">
+        <v>152</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>539</v>
       </c>
       <c r="C150" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Mateo@prueba.com</v>
+        <v>Gabri@prueba.com</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="F150" t="s">
         <v>11</v>
@@ -6721,37 +6674,40 @@
         <v>12</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="J150" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>442</v>
+      <c r="A151" s="4">
+        <v>153</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>539</v>
       </c>
       <c r="C151" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Nicol@prueba.com</v>
+        <v>Gabri@prueba.com</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>446</v>
+        <v>540</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>444</v>
+        <v>541</v>
       </c>
       <c r="F151" t="s">
         <v>11</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>445</v>
+        <v>542</v>
       </c>
       <c r="J151" t="s">
         <v>14</v>
@@ -6759,32 +6715,29 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B152" t="s">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="C152" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Migue@prueba.com</v>
+        <v>Jorge@prueba.com</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>556</v>
+        <v>512</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>557</v>
+        <v>513</v>
       </c>
       <c r="F152" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
-      </c>
-      <c r="H152" t="s">
-        <v>558</v>
+        <v>12</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>559</v>
+        <v>514</v>
       </c>
       <c r="J152" t="s">
         <v>14</v>
@@ -6792,20 +6745,20 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B153" t="s">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="C153" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Gabri@prueba.com</v>
+        <v>Laura@prueba.com</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>561</v>
+        <v>516</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>562</v>
+        <v>517</v>
       </c>
       <c r="F153" t="s">
         <v>11</v>
@@ -6814,7 +6767,7 @@
         <v>12</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>563</v>
+        <v>518</v>
       </c>
       <c r="J153" t="s">
         <v>14</v>
@@ -6822,32 +6775,29 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B154" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C154" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
         <v>Gabri@prueba.com</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="F154" t="s">
         <v>11</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
-      </c>
-      <c r="H154" t="s">
-        <v>564</v>
+        <v>12</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="J154" t="s">
         <v>14</v>
@@ -6855,20 +6805,20 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B155" t="s">
-        <v>530</v>
+        <v>395</v>
       </c>
       <c r="C155" t="str">
         <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Jorge@prueba.com</v>
+        <v>André@prueba.com</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>531</v>
+        <v>396</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>532</v>
+        <v>397</v>
       </c>
       <c r="F155" t="s">
         <v>11</v>
@@ -6877,99 +6827,9 @@
         <v>12</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>533</v>
+        <v>398</v>
       </c>
       <c r="J155" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>565</v>
-      </c>
-      <c r="C156" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Laura@prueba.com</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F156" t="s">
-        <v>11</v>
-      </c>
-      <c r="G156" t="s">
-        <v>12</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J156" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>566</v>
-      </c>
-      <c r="C157" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>Gabri@prueba.com</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F157" t="s">
-        <v>11</v>
-      </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="J157" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>409</v>
-      </c>
-      <c r="C158" t="str">
-        <f>_xlfn.CONCAT(LEFT(Table1[[#This Row],[Nombre completo ]],5),"@prueba.com")</f>
-        <v>André@prueba.com</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="J158" t="s">
         <v>14</v>
       </c>
     </row>
